--- a/biology/Médecine/Laurent_Cerise/Laurent_Cerise.xlsx
+++ b/biology/Médecine/Laurent_Cerise/Laurent_Cerise.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Laurent Alexis Philibert Cerise, né le 27 février 1807 à Aoste et mort le 5 octobre 1869  dans le 8e arrondissement de Paris[1] et inhumé au cimetière du Père-Lachaise, était un médecin originaire de la Vallée d'Aoste.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Laurent Alexis Philibert Cerise, né le 27 février 1807 à Aoste et mort le 5 octobre 1869  dans le 8e arrondissement de Paris et inhumé au cimetière du Père-Lachaise, était un médecin originaire de la Vallée d'Aoste.
 </t>
         </is>
       </c>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Laurent Cerise est issu d'une famille noble; il est le fils d’Antoine-Sulpice Cerise, notaire et syndic d'Aoste en 1808 et 1811-1812, et de Philiberte Martinet, de La Thuile. Il est le neveu du général Guillaume-Michel Cerise, baron d'Empire. Il avait épousé à Paris le 21 mars 1846 Pauline Margueritte Aubert (1818-1901)[2] sœur de l'archéologue français Édouard Aubert[3]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Laurent Cerise est issu d'une famille noble; il est le fils d’Antoine-Sulpice Cerise, notaire et syndic d'Aoste en 1808 et 1811-1812, et de Philiberte Martinet, de La Thuile. Il est le neveu du général Guillaume-Michel Cerise, baron d'Empire. Il avait épousé à Paris le 21 mars 1846 Pauline Margueritte Aubert (1818-1901) sœur de l'archéologue français Édouard Aubert
 Il commence ses études au Collège Saint-Bénin d’Aoste. Il fréquente ensuite l’Université de Turin où, le 5 février 1828, il présente sa thèse de docteur en médecine, à l’âge de 21 ans. Il s’établit ensuite à Paris en 1831 où il est accueilli par Wilhelmine Senff de Pilsach, veuve de son oncle Guillaume-Michel Cerise, général et baron d'Empire et s'établit comme docteur en 1834.
 Selon Laurent Cerise, la connaissance de la physiopathologie devait aller de pair avec la psychologie, ce qui remettait en question les fondements de la très renommée École médicale parisienne qui, à cette époque, était encore basée sur la médecine organiciste de Bichat.
-Il est inhumé au cimetière du Père-Lachaise (45e division)[4].
+Il est inhumé au cimetière du Père-Lachaise (45e division).
 </t>
         </is>
       </c>
